--- a/model/Scade/System/TracksideDynamicModel/TestTracks/UtrechtAmsterdam_oETCS/XREF_RBC_Messages_Amsterdam_Utrecht.xlsx
+++ b/model/Scade/System/TracksideDynamicModel/TestTracks/UtrechtAmsterdam_oETCS/XREF_RBC_Messages_Amsterdam_Utrecht.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11300" windowHeight="14260" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4064,7 +4064,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
